--- a/www/IndicatorsPerCountry/EquatorialGuinea_GDPperCapita_TerritorialRef_1968_2012_CCode_226.xlsx
+++ b/www/IndicatorsPerCountry/EquatorialGuinea_GDPperCapita_TerritorialRef_1968_2012_CCode_226.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/EquatorialGuinea_GDPperCapita_TerritorialRef_1968_2012_CCode_226.xlsx
+++ b/www/IndicatorsPerCountry/EquatorialGuinea_GDPperCapita_TerritorialRef_1968_2012_CCode_226.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>1285</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>1393</t>
-  </si>
-  <si>
-    <t>1424</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1309</t>
-  </si>
-  <si>
-    <t>1186</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1294</t>
-  </si>
-  <si>
-    <t>1452</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>1572</t>
-  </si>
-  <si>
-    <t>1541</t>
-  </si>
-  <si>
-    <t>1477</t>
-  </si>
-  <si>
-    <t>1412</t>
-  </si>
-  <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>1678</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1466</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>1552.14227971</t>
-  </si>
-  <si>
-    <t>1581.11265231</t>
-  </si>
-  <si>
-    <t>1703.97730751</t>
-  </si>
-  <si>
-    <t>1761.59426762</t>
-  </si>
-  <si>
-    <t>1800.00627348</t>
-  </si>
-  <si>
-    <t>1998.91608072</t>
-  </si>
-  <si>
-    <t>2509.00962547</t>
-  </si>
-  <si>
-    <t>4177.14278113</t>
-  </si>
-  <si>
-    <t>4951.94586907</t>
-  </si>
-  <si>
-    <t>6805.7411138</t>
-  </si>
-  <si>
-    <t>7676.7660326</t>
-  </si>
-  <si>
-    <t>10477.9618872</t>
-  </si>
-  <si>
-    <t>11154.7649223</t>
-  </si>
-  <si>
-    <t>12824.5078154</t>
-  </si>
-  <si>
-    <t>16415.9480609</t>
-  </si>
-  <si>
-    <t>17506.064538</t>
-  </si>
-  <si>
-    <t>17243.3595324</t>
-  </si>
-  <si>
-    <t>20361.3760769</t>
-  </si>
-  <si>
-    <t>22048.5060645</t>
+    <t>797</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2466</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>3453</t>
+  </si>
+  <si>
+    <t>3668</t>
+  </si>
+  <si>
+    <t>3451</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>2603</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>2534</t>
+  </si>
+  <si>
+    <t>2437</t>
+  </si>
+  <si>
+    <t>2662</t>
+  </si>
+  <si>
+    <t>2579</t>
+  </si>
+  <si>
+    <t>2577</t>
+  </si>
+  <si>
+    <t>2479</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>2427.88024951205</t>
+  </si>
+  <si>
+    <t>2690.63309412509</t>
+  </si>
+  <si>
+    <t>2880.20400818885</t>
+  </si>
+  <si>
+    <t>3081.15250420458</t>
+  </si>
+  <si>
+    <t>3364.63258044284</t>
+  </si>
+  <si>
+    <t>4426.33782610114</t>
+  </si>
+  <si>
+    <t>8445.64499672705</t>
+  </si>
+  <si>
+    <t>9712.22621077315</t>
+  </si>
+  <si>
+    <t>11690.1351585363</t>
+  </si>
+  <si>
+    <t>12914.8512921307</t>
+  </si>
+  <si>
+    <t>21167.7413539634</t>
+  </si>
+  <si>
+    <t>24845.0422260709</t>
+  </si>
+  <si>
+    <t>27571.1590436026</t>
+  </si>
+  <si>
+    <t>33419.8857944737</t>
+  </si>
+  <si>
+    <t>35569.7076236273</t>
+  </si>
+  <si>
+    <t>36615.7057037176</t>
+  </si>
+  <si>
+    <t>41277.7556536689</t>
+  </si>
+  <si>
+    <t>47562.3195289018</t>
+  </si>
+  <si>
+    <t>47161.2847380668</t>
+  </si>
+  <si>
+    <t>42037.8974036049</t>
+  </si>
+  <si>
+    <t>43841</t>
+  </si>
+  <si>
+    <t>46255</t>
+  </si>
+  <si>
+    <t>43209</t>
+  </si>
+  <si>
+    <t>41907</t>
+  </si>
+  <si>
+    <t>37822</t>
+  </si>
+  <si>
+    <t>33317</t>
   </si>
   <si>
     <t>Description</t>
@@ -852,7 +876,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +893,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1312,6 +1336,142 @@
       </c>
       <c r="E60" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
